--- a/test_data/物理资源.xlsx
+++ b/test_data/物理资源.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="72">
   <si>
     <t>ID</t>
   </si>
@@ -159,6 +159,81 @@
   </si>
   <si>
     <t>v3</t>
+  </si>
+  <si>
+    <t>resourcepooltype</t>
+  </si>
+  <si>
+    <t>resourcepool</t>
+  </si>
+  <si>
+    <t>tenant</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>vmname</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>ostype</t>
+  </si>
+  <si>
+    <t>cpu</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>osdisk</t>
+  </si>
+  <si>
+    <t>disktype</t>
+  </si>
+  <si>
+    <t>net</t>
+  </si>
+  <si>
+    <t>subnet</t>
+  </si>
+  <si>
+    <t>nettype</t>
+  </si>
+  <si>
+    <t>ipaddress</t>
+  </si>
+  <si>
+    <t>VC租户</t>
+  </si>
+  <si>
+    <t>VC项目</t>
+  </si>
+  <si>
+    <t>vc-vm</t>
+  </si>
+  <si>
+    <t>VC-镜像</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Thick Provison Eager Zeroed</t>
+  </si>
+  <si>
+    <t>VC-网络</t>
+  </si>
+  <si>
+    <t>VMXNET 3</t>
+  </si>
+  <si>
+    <t>172.21.3.90</t>
   </si>
 </sst>
 </file>
@@ -166,10 +241,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -196,74 +271,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,9 +288,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -293,8 +324,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,7 +355,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,20 +385,27 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -341,31 +416,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,151 +572,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,17 +651,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,33 +695,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -648,13 +710,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,6 +739,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -681,163 +756,172 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyBorder="1">
@@ -1177,91 +1261,91 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="27.125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="71.5" style="7" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="3.375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="5.375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="10.375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="27.125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="71.5" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="3.375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="5.375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="8.375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="10.375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
       <c r="E2"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1297,60 +1381,60 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A1" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="23.75" style="7" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="23.75" style="10" customWidth="1"/>
     <col min="4" max="4" width="18.875" customWidth="1"/>
     <col min="5" max="5" width="10.375" customWidth="1"/>
-    <col min="6" max="6" width="21.75" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="7" customWidth="1"/>
+    <col min="6" max="6" width="21.75" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="10" customWidth="1"/>
     <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="11.25" style="7" customWidth="1"/>
-    <col min="11" max="11" width="28.625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="12.125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="11.25" style="10" customWidth="1"/>
+    <col min="11" max="11" width="28.625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="12.125" style="10" customWidth="1"/>
     <col min="13" max="13" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="7" t="s">
         <v>20</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -1373,122 +1457,122 @@
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>443</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="8">
         <v>443</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>5000</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="5">
         <v>5000</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4" t="s">
+      <c r="M4" s="5"/>
+      <c r="N4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1544,40 +1628,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="7" t="s">
         <v>20</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -1600,122 +1684,122 @@
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>443</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="8">
         <v>443</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>5000</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="5">
         <v>5000</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4" t="s">
+      <c r="M4" s="5"/>
+      <c r="N4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1752,14 +1836,175 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="9.375" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="5.375" customWidth="1"/>
+    <col min="11" max="11" width="7.375" customWidth="1"/>
+    <col min="12" max="12" width="8.125" customWidth="1"/>
+    <col min="13" max="13" width="28.25" customWidth="1"/>
+    <col min="14" max="14" width="12.875" customWidth="1"/>
+    <col min="15" max="15" width="7" customWidth="1"/>
+    <col min="16" max="16" width="9.125" customWidth="1"/>
+    <col min="17" max="17" width="22.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5">
+        <v>2</v>
+      </c>
+      <c r="L3" s="5">
+        <v>40</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/test_data/物理资源.xlsx
+++ b/test_data/物理资源.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" activeTab="4"/>
+    <workbookView windowWidth="20490" windowHeight="7860" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="添加数据中心" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,16 @@
     <sheet name="添加资源池" sheetId="2" r:id="rId3"/>
     <sheet name="编辑资源池" sheetId="4" r:id="rId4"/>
     <sheet name="创建虚拟机" sheetId="5" r:id="rId5"/>
+    <sheet name="注册主机" sheetId="6" r:id="rId6"/>
+    <sheet name="创建裸金属" sheetId="7" r:id="rId7"/>
+    <sheet name="创建裸机镜像" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="103">
   <si>
     <t>ID</t>
   </si>
@@ -56,6 +59,12 @@
     <t>数据中心名称必填校验</t>
   </si>
   <si>
+    <t>添加裸金属类型数据中心</t>
+  </si>
+  <si>
+    <t>添加裸金属数据中心</t>
+  </si>
+  <si>
     <t>testcases</t>
   </si>
   <si>
@@ -161,6 +170,21 @@
     <t>v3</t>
   </si>
   <si>
+    <t>正常添加裸金属资源池</t>
+  </si>
+  <si>
+    <t>裸金属资源池</t>
+  </si>
+  <si>
+    <t>baremetal</t>
+  </si>
+  <si>
+    <t>裸金属资源池测试</t>
+  </si>
+  <si>
+    <t>172.23.1.2</t>
+  </si>
+  <si>
     <t>resourcepooltype</t>
   </si>
   <si>
@@ -234,6 +258,78 @@
   </si>
   <si>
     <t>172.21.3.90</t>
+  </si>
+  <si>
+    <t>enablePublic</t>
+  </si>
+  <si>
+    <t>onlyManage</t>
+  </si>
+  <si>
+    <t>cpuArch</t>
+  </si>
+  <si>
+    <t>cpuSize</t>
+  </si>
+  <si>
+    <t>memorySize</t>
+  </si>
+  <si>
+    <t>diskSize</t>
+  </si>
+  <si>
+    <t>ipmiIp</t>
+  </si>
+  <si>
+    <t>ipmiUser</t>
+  </si>
+  <si>
+    <t>ipmiPassword</t>
+  </si>
+  <si>
+    <t>pxeMac</t>
+  </si>
+  <si>
+    <t>manufacturer</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>upPort</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>x86</t>
+  </si>
+  <si>
+    <t>172.16.19.115</t>
+  </si>
+  <si>
+    <t>calvin</t>
+  </si>
+  <si>
+    <t>C8:1F:66:E5:50:D2</t>
+  </si>
+  <si>
+    <t>DELL</t>
+  </si>
+  <si>
+    <t>R620</t>
+  </si>
+  <si>
+    <t>osType</t>
+  </si>
+  <si>
+    <t>osVersion</t>
+  </si>
+  <si>
+    <t>imagePath</t>
+  </si>
+  <si>
+    <t>imageDesc</t>
   </si>
 </sst>
 </file>
@@ -241,10 +337,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -272,7 +368,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,17 +390,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,7 +412,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,43 +475,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,19 +489,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -398,14 +502,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -416,13 +512,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,163 +548,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,15 +749,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -674,8 +761,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,16 +807,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,26 +836,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,10 +852,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -768,133 +864,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -933,6 +1029,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1253,13 +1355,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="3.375" style="10" customWidth="1"/>
     <col min="2" max="2" width="27.125" style="10" customWidth="1"/>
@@ -1346,6 +1448,18 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1378,13 +1492,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B4"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="23.625" style="10" customWidth="1"/>
@@ -1405,55 +1519,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1481,40 +1595,40 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H3" s="5">
         <v>443</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J3" s="8">
         <v>443</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -1527,54 +1641,96 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H4" s="5">
         <v>5000</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J4" s="5">
         <v>5000</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R4" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="5">
+        <v>7003</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -1612,7 +1768,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S1" sqref="$A1:$XFD4"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1632,55 +1788,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1708,40 +1864,40 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H3" s="5">
         <v>443</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J3" s="8">
         <v>443</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -1754,53 +1910,53 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H4" s="5">
         <v>5000</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J4" s="5">
         <v>5000</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1838,8 +1994,8 @@
   <sheetPr/>
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1862,55 +2018,55 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1934,31 +2090,31 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G3" s="5">
         <v>1</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="J3" s="5">
         <v>1</v>
@@ -1970,19 +2126,19 @@
         <v>40</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2008,4 +2164,247 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R1" sqref="$A1:$XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="8" max="8" width="13.375" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="18.25" customWidth="1"/>
+    <col min="14" max="14" width="15.75" customWidth="1"/>
+    <col min="17" max="17" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="5">
+        <v>115</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="5">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5">
+        <v>8</v>
+      </c>
+      <c r="I3" s="5">
+        <v>40</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="P3" s="5">
+        <v>1212</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/test_data/物理资源.xlsx
+++ b/test_data/物理资源.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" firstSheet="2" activeTab="7"/>
+    <workbookView windowWidth="20490" windowHeight="7860" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="添加数据中心" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="注册主机" sheetId="6" r:id="rId6"/>
     <sheet name="创建裸金属" sheetId="7" r:id="rId7"/>
     <sheet name="创建裸机镜像" sheetId="8" r:id="rId8"/>
+    <sheet name="操作虚拟机" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="103">
   <si>
     <t>ID</t>
   </si>
@@ -338,8 +339,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -374,9 +375,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,7 +398,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,17 +412,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -442,8 +434,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,6 +460,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,6 +489,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -480,28 +503,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -512,187 +513,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,11 +750,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,6 +785,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -782,26 +816,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,30 +845,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -852,10 +853,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -867,13 +868,13 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -882,115 +883,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1001,6 +1002,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1009,9 +1013,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1397,53 +1398,53 @@
       <c r="E2"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="5">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="5">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="5">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="8"/>
@@ -1521,7 +1522,7 @@
       <c r="B1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -1551,29 +1552,29 @@
       <c r="L1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="4"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1583,15 +1584,15 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="5">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1600,10 +1601,10 @@
       <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -1612,10 +1613,10 @@
       <c r="G3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="2">
         <v>443</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="8">
@@ -1627,110 +1628,110 @@
       <c r="L3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="5">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="2">
         <v>5000</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="2">
         <v>5000</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5" t="s">
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="5">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="2">
         <v>7003</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5" t="s">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5" t="s">
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -1790,7 +1791,7 @@
       <c r="B1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -1820,29 +1821,29 @@
       <c r="L1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="4"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1852,15 +1853,15 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="5">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1869,10 +1870,10 @@
       <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -1881,10 +1882,10 @@
       <c r="G3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="2">
         <v>443</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="8">
@@ -1896,66 +1897,66 @@
       <c r="L3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="5">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="2">
         <v>5000</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="2">
         <v>5000</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5" t="s">
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1995,7 +1996,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="C1" sqref="C1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -2020,7 +2021,7 @@
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2038,10 +2039,10 @@
       <c r="G1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>61</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -2070,15 +2071,15 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -2089,52 +2090,52 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="2">
         <v>1</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="2">
         <v>2</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="2">
         <v>40</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="2" t="s">
         <v>77</v>
       </c>
       <c r="Q3" s="6" t="s">
@@ -2193,7 +2194,7 @@
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2211,10 +2212,10 @@
       <c r="G1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>84</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -2243,15 +2244,15 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -2265,52 +2266,52 @@
       <c r="A3" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="2">
         <v>115</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="2">
         <v>4</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="2">
         <v>8</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="2">
         <v>40</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="2">
         <v>1212</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2360,7 +2361,7 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -2376,7 +2377,7 @@
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2390,8 +2391,8 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2407,4 +2408,48 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/test_data/物理资源.xlsx
+++ b/test_data/物理资源.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" firstSheet="3" activeTab="8"/>
+    <workbookView windowWidth="20490" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="添加数据中心" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="117">
   <si>
     <t>ID</t>
   </si>
@@ -171,6 +171,21 @@
     <t>v3</t>
   </si>
   <si>
+    <t>添加openstack资源池开发</t>
+  </si>
+  <si>
+    <t>openstack资源池30</t>
+  </si>
+  <si>
+    <t>openstack资源池30开发</t>
+  </si>
+  <si>
+    <t>172.21.1.30</t>
+  </si>
+  <si>
+    <t>9586149bbadf450aaa46440d7e68ba08</t>
+  </si>
+  <si>
     <t>正常添加裸金属资源池</t>
   </si>
   <si>
@@ -259,6 +274,33 @@
   </si>
   <si>
     <t>172.21.3.90</t>
+  </si>
+  <si>
+    <t>OP租户</t>
+  </si>
+  <si>
+    <t>OP项目</t>
+  </si>
+  <si>
+    <t>op-vm</t>
+  </si>
+  <si>
+    <t>OP-镜像</t>
+  </si>
+  <si>
+    <t>OP-网络</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>172.21.6.95</t>
+  </si>
+  <si>
+    <t>op-vm2</t>
+  </si>
+  <si>
+    <t>172.21.6.96</t>
   </si>
   <si>
     <t>enablePublic</t>
@@ -339,9 +381,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -368,44 +410,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,23 +434,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,21 +462,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -473,17 +470,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,6 +499,52 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -513,187 +555,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,8 +793,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,8 +817,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,13 +847,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,32 +877,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -853,10 +895,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -865,133 +907,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1359,7 +1401,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1493,13 +1535,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="23.625" style="10" customWidth="1"/>
@@ -1513,6 +1555,8 @@
     <col min="11" max="11" width="28.625" style="10" customWidth="1"/>
     <col min="12" max="12" width="12.125" style="10" customWidth="1"/>
     <col min="13" max="13" width="14.25" customWidth="1"/>
+    <col min="15" max="15" width="36" customWidth="1"/>
+    <col min="17" max="17" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -1699,39 +1743,93 @@
         <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2">
+        <v>5000</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="2">
-        <v>7003</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
       <c r="P5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="Q5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="2">
+        <v>7003</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -1993,17 +2091,17 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="19.125" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="5" width="9.375" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
@@ -2019,55 +2117,55 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2100,22 +2198,22 @@
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
@@ -2127,19 +2225,121 @@
         <v>40</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>78</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>40</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>40</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2192,55 +2392,55 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2264,22 +2464,22 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="13" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E3" s="2">
         <v>115</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="G3" s="2">
         <v>4</v>
@@ -2291,28 +2491,28 @@
         <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="P3" s="2">
         <v>1212</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2378,16 +2578,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2415,8 +2615,8 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -2426,10 +2626,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2438,7 +2638,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>30</v>

--- a/test_data/物理资源.xlsx
+++ b/test_data/物理资源.xlsx
@@ -9,20 +9,21 @@
   <sheets>
     <sheet name="添加数据中心" sheetId="1" r:id="rId1"/>
     <sheet name="编辑数据中心" sheetId="3" r:id="rId2"/>
-    <sheet name="添加资源池" sheetId="2" r:id="rId3"/>
-    <sheet name="编辑资源池" sheetId="4" r:id="rId4"/>
-    <sheet name="创建虚拟机" sheetId="5" r:id="rId5"/>
-    <sheet name="注册主机" sheetId="6" r:id="rId6"/>
-    <sheet name="创建裸金属" sheetId="7" r:id="rId7"/>
-    <sheet name="创建裸机镜像" sheetId="8" r:id="rId8"/>
-    <sheet name="操作虚拟机" sheetId="9" r:id="rId9"/>
+    <sheet name="删除数据中心" sheetId="10" r:id="rId3"/>
+    <sheet name="添加资源池" sheetId="2" r:id="rId4"/>
+    <sheet name="编辑资源池" sheetId="4" r:id="rId5"/>
+    <sheet name="创建虚拟机" sheetId="5" r:id="rId6"/>
+    <sheet name="注册主机" sheetId="6" r:id="rId7"/>
+    <sheet name="创建裸金属" sheetId="7" r:id="rId8"/>
+    <sheet name="创建裸机镜像" sheetId="8" r:id="rId9"/>
+    <sheet name="操作虚拟机" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="130">
   <si>
     <t>ID</t>
   </si>
@@ -72,6 +73,21 @@
     <t>regionname</t>
   </si>
   <si>
+    <t>update_region</t>
+  </si>
+  <si>
+    <t>正常编辑数据中心</t>
+  </si>
+  <si>
+    <t>添加vmware数据中心-update</t>
+  </si>
+  <si>
+    <t>test1-update</t>
+  </si>
+  <si>
+    <t>正常删除无资源池的数据中心</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
@@ -201,6 +217,24 @@
     <t>172.23.1.2</t>
   </si>
   <si>
+    <t>正常编辑vmware资源池</t>
+  </si>
+  <si>
+    <t>vmware资源池更新</t>
+  </si>
+  <si>
+    <t>正常编辑openstack资源池</t>
+  </si>
+  <si>
+    <t>openstack资源池更新</t>
+  </si>
+  <si>
+    <t>正常编辑裸金属资源池</t>
+  </si>
+  <si>
+    <t>baremetal资源池更新</t>
+  </si>
+  <si>
     <t>resourcepooltype</t>
   </si>
   <si>
@@ -300,7 +334,13 @@
     <t>op-vm2</t>
   </si>
   <si>
-    <t>172.21.6.96</t>
+    <t>OP30-镜像</t>
+  </si>
+  <si>
+    <t>OP30-网络</t>
+  </si>
+  <si>
+    <t>172.21.8.95</t>
   </si>
   <si>
     <t>enablePublic</t>
@@ -380,8 +420,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -410,16 +450,68 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,15 +532,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,90 +585,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -561,85 +601,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,91 +769,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,11 +830,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,6 +876,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,30 +913,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -876,17 +927,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -895,10 +935,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -907,16 +947,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -925,119 +965,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1072,6 +1112,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
@@ -1401,7 +1447,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A1" sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1516,17 +1562,116 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="C1" sqref="C1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="26.875" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1535,10 +1680,64 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="26.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R6" sqref="A1:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1573,46 +1772,46 @@
         <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1640,40 +1839,40 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2">
         <v>443</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J3" s="8">
         <v>443</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1686,53 +1885,53 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2">
         <v>5000</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J4" s="2">
         <v>5000</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1740,53 +1939,53 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H5" s="2">
         <v>5000</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J5" s="2">
         <v>5000</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="O5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1794,22 +1993,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H6" s="2">
         <v>7003</v>
@@ -1817,246 +2016,19 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" display="administrator@vsphere.local"/>
-    <hyperlink ref="L3" r:id="rId2" display="Root@1234"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:R4"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
-  <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="22.875" customWidth="1"/>
-    <col min="4" max="4" width="18.875" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
-    <col min="6" max="6" width="23.125" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="8.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="2">
-        <v>443</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="8">
-        <v>443</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="2">
-        <v>5000</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="2">
-        <v>5000</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>48</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2091,10 +2063,295 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:S5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="23.625" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="23.125" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="8.125" customWidth="1"/>
+    <col min="18" max="18" width="8" customWidth="1"/>
+    <col min="19" max="19" width="19.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2">
+        <v>443</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="8">
+        <v>443</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5000</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="2">
+        <v>7003</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K3" r:id="rId1" display="administrator@vsphere.local"/>
+    <hyperlink ref="L3" r:id="rId2" display="Root@1234"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -2117,55 +2374,55 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2189,31 +2446,31 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
@@ -2225,48 +2482,48 @@
         <v>40</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
@@ -2279,45 +2536,45 @@
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
@@ -2330,189 +2587,16 @@
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Q3"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R1" sqref="$A1:$XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
-  <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="8" max="8" width="13.375" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="13.875" customWidth="1"/>
-    <col min="11" max="11" width="10.625" customWidth="1"/>
-    <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="18.25" customWidth="1"/>
-    <col min="14" max="14" width="15.75" customWidth="1"/>
-    <col min="17" max="17" width="13.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="P1" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" s="2">
-        <v>115</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G3" s="2">
-        <v>4</v>
-      </c>
-      <c r="H3" s="2">
-        <v>8</v>
-      </c>
-      <c r="I3" s="2">
-        <v>40</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="P3" s="2">
-        <v>1212</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2543,6 +2627,179 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R1" sqref="$A1:$XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="8" max="8" width="13.375" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="18.25" customWidth="1"/>
+    <col min="14" max="14" width="15.75" customWidth="1"/>
+    <col min="17" max="17" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="2">
+        <v>115</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2">
+        <v>8</v>
+      </c>
+      <c r="I3" s="2">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1212</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2556,7 +2813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E2"/>
@@ -2578,16 +2835,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2608,48 +2865,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
-  <cols>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/test_data/物理资源.xlsx
+++ b/test_data/物理资源.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8010" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="添加数据中心" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,21 @@
     <sheet name="创建裸金属" sheetId="7" r:id="rId8"/>
     <sheet name="创建裸机镜像" sheetId="8" r:id="rId9"/>
     <sheet name="操作虚拟机" sheetId="9" r:id="rId10"/>
+    <sheet name="编辑虚拟机磁盘" sheetId="11" r:id="rId11"/>
+    <sheet name="添加虚拟机网卡" sheetId="12" r:id="rId12"/>
+    <sheet name="删除虚拟机网卡" sheetId="13" r:id="rId13"/>
+    <sheet name="编辑虚拟机配置" sheetId="14" r:id="rId14"/>
+    <sheet name="克隆虚拟机" sheetId="15" r:id="rId15"/>
+    <sheet name="重装虚拟机操作系统" sheetId="16" r:id="rId16"/>
+    <sheet name="迁移虚拟机" sheetId="17" r:id="rId17"/>
+    <sheet name="创建快照" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="159">
   <si>
     <t>ID</t>
   </si>
@@ -413,6 +421,93 @@
   </si>
   <si>
     <t>imageDesc</t>
+  </si>
+  <si>
+    <t>os</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>datastore</t>
+  </si>
+  <si>
+    <t>数据盘</t>
+  </si>
+  <si>
+    <t>Thin Provison</t>
+  </si>
+  <si>
+    <t>Thick Provison Lazy Zeroed</t>
+  </si>
+  <si>
+    <t>resourcepoolType</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>172.21.3.55</t>
+  </si>
+  <si>
+    <t>172.21.3.56</t>
+  </si>
+  <si>
+    <t>E1000</t>
+  </si>
+  <si>
+    <t>cloned_vmname</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>hypervisorType</t>
+  </si>
+  <si>
+    <t>clone-vc-vm</t>
+  </si>
+  <si>
+    <t>172.21.3.60</t>
+  </si>
+  <si>
+    <t>hostname</t>
+  </si>
+  <si>
+    <t>storename</t>
+  </si>
+  <si>
+    <t>172.21.1.19</t>
+  </si>
+  <si>
+    <t>data02</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>quiesce</t>
+  </si>
+  <si>
+    <t>snapshots</t>
+  </si>
+  <si>
+    <t>创建快照</t>
+  </si>
+  <si>
+    <t>memory-snapshots</t>
+  </si>
+  <si>
+    <t>内存快照</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>quiesce-snapshots</t>
+  </si>
+  <si>
+    <t>静默快照</t>
   </si>
 </sst>
 </file>
@@ -421,8 +516,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -459,9 +554,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -473,22 +576,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,6 +599,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -518,15 +621,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,7 +644,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,14 +660,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,10 +674,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -595,31 +690,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,7 +732,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,7 +780,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,121 +870,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,21 +925,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -852,6 +932,39 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,20 +993,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -912,21 +1022,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -938,7 +1033,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="9">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -947,16 +1042,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -968,116 +1063,116 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="21" borderId="10">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1112,12 +1207,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
@@ -1447,7 +1536,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1568,7 +1657,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1600,6 +1689,773 @@
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="33.75" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="19.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="24.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P29" sqref="P28:P29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="8.125" customWidth="1"/>
+    <col min="6" max="6" width="9.25" customWidth="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="8" max="8" width="13.625" customWidth="1"/>
+    <col min="9" max="9" width="8.125" customWidth="1"/>
+    <col min="10" max="10" width="4.75" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
+    <col min="12" max="12" width="10.125" customWidth="1"/>
+    <col min="13" max="13" width="8.125" customWidth="1"/>
+    <col min="14" max="14" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G15:G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="8.125" customWidth="1"/>
+    <col min="6" max="6" width="9.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1633,7 +2489,7 @@
       <c r="C1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="11" t="s">
@@ -1644,7 +2500,7 @@
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
-      <c r="D2" s="14"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5">
@@ -1737,7 +2593,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R6" sqref="A1:R6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -2065,7 +2921,7 @@
   <sheetPr/>
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -2351,7 +3207,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -2720,7 +3576,7 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2729,7 +3585,7 @@
       <c r="C3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>119</v>
       </c>
       <c r="E3" s="2">

--- a/test_data/物理资源.xlsx
+++ b/test_data/物理资源.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="10" activeTab="14"/>
+    <workbookView windowWidth="20700" windowHeight="8325" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="添加数据中心" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="163">
   <si>
     <t>ID</t>
   </si>
@@ -267,6 +267,12 @@
     <t>ostype</t>
   </si>
   <si>
+    <t>cluster</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
     <t>cpu</t>
   </si>
   <si>
@@ -304,6 +310,12 @@
   </si>
   <si>
     <t>Linux</t>
+  </si>
+  <si>
+    <t>集群-01</t>
+  </si>
+  <si>
+    <t>172.21.1.17</t>
   </si>
   <si>
     <t>Thick Provison Eager Zeroed</t>
@@ -515,10 +527,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -546,6 +558,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -561,6 +580,21 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -569,14 +603,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,21 +634,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -621,30 +641,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,7 +656,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -680,6 +685,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -690,7 +702,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,133 +768,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,7 +786,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,19 +870,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,11 +972,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -993,17 +1011,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1030,145 +1042,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1679,7 +1691,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>35</v>
@@ -1722,16 +1734,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1745,13 +1757,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D3" s="2" t="b">
         <v>0</v>
@@ -1760,19 +1772,19 @@
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D4" s="2" t="b">
         <v>0</v>
@@ -1781,19 +1793,19 @@
         <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D5" s="2" t="b">
         <v>0</v>
@@ -1802,7 +1814,7 @@
         <v>40</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -1847,16 +1859,16 @@
         <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>21</v>
@@ -1873,7 +1885,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>35</v>
@@ -1882,21 +1894,21 @@
         <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>35</v>
@@ -1905,16 +1917,16 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1955,7 +1967,7 @@
         <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1965,24 +1977,24 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2015,10 +2027,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2041,7 +2053,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>35</v>
@@ -2055,7 +2067,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>35</v>
@@ -2078,7 +2090,7 @@
   <sheetPr/>
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="P29" sqref="P28:P29"/>
     </sheetView>
   </sheetViews>
@@ -2101,13 +2113,13 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>32</v>
@@ -2119,7 +2131,7 @@
         <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -2128,19 +2140,19 @@
         <v>77</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2161,7 +2173,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>35</v>
@@ -2173,19 +2185,19 @@
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
@@ -2194,13 +2206,13 @@
         <v>2</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2258,13 +2270,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2303,10 +2315,10 @@
         <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2317,16 +2329,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2371,13 +2383,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2390,62 +2402,62 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2465,16 +2477,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="27.125" customWidth="1"/>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="27.375" customWidth="1"/>
     <col min="4" max="4" width="26.875" customWidth="1"/>
     <col min="5" max="5" width="14.125" customWidth="1"/>
   </cols>
@@ -2519,6 +2531,21 @@
       <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3204,10 +3231,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -3218,17 +3245,18 @@
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="5" width="9.375" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="5.375" customWidth="1"/>
-    <col min="11" max="11" width="7.375" customWidth="1"/>
-    <col min="12" max="12" width="8.125" customWidth="1"/>
-    <col min="13" max="13" width="28.25" customWidth="1"/>
-    <col min="14" max="14" width="12.875" customWidth="1"/>
-    <col min="15" max="15" width="7" customWidth="1"/>
-    <col min="16" max="16" width="9.125" customWidth="1"/>
-    <col min="17" max="17" width="22.375" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="5.375" customWidth="1"/>
+    <col min="13" max="13" width="7.375" customWidth="1"/>
+    <col min="14" max="14" width="8.125" customWidth="1"/>
+    <col min="15" max="15" width="28.25" customWidth="1"/>
+    <col min="16" max="16" width="12.875" customWidth="1"/>
+    <col min="17" max="17" width="7" customWidth="1"/>
+    <col min="18" max="18" width="9.125" customWidth="1"/>
+    <col min="19" max="19" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
@@ -3256,10 +3284,10 @@
       <c r="I1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>79</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -3280,8 +3308,14 @@
       <c r="Q1" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="1"/>
@@ -3291,16 +3325,18 @@
       <c r="G2" s="1"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
@@ -3311,49 +3347,55 @@
         <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J3" s="2">
+        <v>92</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="2">
         <v>1</v>
       </c>
-      <c r="K3" s="2">
+      <c r="M3" s="2">
         <v>2</v>
       </c>
-      <c r="L3" s="2">
+      <c r="N3" s="2">
         <v>40</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="O3" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>96</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
@@ -3364,47 +3406,49 @@
         <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4" s="2">
+        <v>92</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2">
         <v>1</v>
       </c>
-      <c r="K4" s="2">
+      <c r="M4" s="2">
         <v>2</v>
       </c>
-      <c r="L4" s="2">
+      <c r="N4" s="2">
         <v>40</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="O4" s="2"/>
       <c r="P4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>103</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
@@ -3415,48 +3459,50 @@
         <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J5" s="2">
+        <v>92</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2">
         <v>1</v>
       </c>
-      <c r="K5" s="2">
+      <c r="M5" s="2">
         <v>2</v>
       </c>
-      <c r="L5" s="2">
+      <c r="N5" s="2">
         <v>40</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2"/>
+      <c r="P5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R5" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>105</v>
+      <c r="S5" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -3474,6 +3520,8 @@
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3505,7 +3553,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>72</v>
@@ -3514,43 +3562,43 @@
         <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>71</v>
@@ -3577,22 +3625,22 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="13" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E3" s="2">
         <v>115</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G3" s="2">
         <v>4</v>
@@ -3604,22 +3652,22 @@
         <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P3" s="2">
         <v>1212</v>
@@ -3691,16 +3739,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:5">

--- a/test_data/物理资源.xlsx
+++ b/test_data/物理资源.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20700" windowHeight="8325" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="8010" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="添加数据中心" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="163">
   <si>
     <t>ID</t>
   </si>
@@ -435,6 +435,9 @@
     <t>imageDesc</t>
   </si>
   <si>
+    <t>clone-vc-vm</t>
+  </si>
+  <si>
     <t>os</t>
   </si>
   <si>
@@ -475,9 +478,6 @@
   </si>
   <si>
     <t>hypervisorType</t>
-  </si>
-  <si>
-    <t>clone-vc-vm</t>
   </si>
   <si>
     <t>172.21.3.60</t>
@@ -1666,14 +1666,15 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1694,6 +1695,14 @@
         <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1734,16 +1743,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1763,7 +1772,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D3" s="2" t="b">
         <v>0</v>
@@ -1772,7 +1781,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -1784,7 +1793,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D4" s="2" t="b">
         <v>0</v>
@@ -1805,7 +1814,7 @@
         <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D5" s="2" t="b">
         <v>0</v>
@@ -1814,7 +1823,7 @@
         <v>40</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -1859,10 +1868,10 @@
         <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>85</v>
@@ -1900,7 +1909,7 @@
         <v>85</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>97</v>
@@ -1923,10 +1932,10 @@
         <v>85</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1983,7 +1992,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1994,7 +2003,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2113,13 +2122,13 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>32</v>
@@ -2131,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -2146,7 +2155,7 @@
         <v>81</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>85</v>
@@ -2194,7 +2203,7 @@
         <v>36</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>92</v>
@@ -2479,7 +2488,7 @@
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -2949,7 +2958,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>

--- a/test_data/物理资源.xlsx
+++ b/test_data/物理资源.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8010" firstSheet="4" activeTab="9"/>
+    <workbookView windowWidth="20490" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="添加数据中心" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="146">
   <si>
     <t>ID</t>
   </si>
@@ -66,9 +66,6 @@
     <t>添加重名数据中心</t>
   </si>
   <si>
-    <t>数据中心名称必填校验</t>
-  </si>
-  <si>
     <t>添加裸金属类型数据中心</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
     <t>update_region</t>
   </si>
   <si>
+    <t>status_code</t>
+  </si>
+  <si>
     <t>正常编辑数据中心</t>
   </si>
   <si>
@@ -93,9 +93,18 @@
     <t>test1-update</t>
   </si>
   <si>
+    <t>数据中心名称冲突</t>
+  </si>
+  <si>
     <t>正常删除无资源池的数据中心</t>
   </si>
   <si>
+    <t>并发删除已不存在的数据中心</t>
+  </si>
+  <si>
+    <t>数据中心region</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
@@ -135,304 +144,244 @@
     <t>version</t>
   </si>
   <si>
+    <t>expected_result</t>
+  </si>
+  <si>
+    <t>db_verify</t>
+  </si>
+  <si>
     <t>正常添加vmware资源池</t>
   </si>
   <si>
+    <t>vmware资源池</t>
+  </si>
+  <si>
+    <t>vmware</t>
+  </si>
+  <si>
+    <t>vmware资源池测试</t>
+  </si>
+  <si>
+    <t>172.21.1.21</t>
+  </si>
+  <si>
+    <t>administrator@vsphere.local</t>
+  </si>
+  <si>
+    <t>Root@1234</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>select id,name from bizops_tenant.resourcepool where name='vmware资源池'</t>
+  </si>
+  <si>
+    <t>正常添加裸金属资源池</t>
+  </si>
+  <si>
+    <t>裸金属资源池</t>
+  </si>
+  <si>
+    <t>baremetal</t>
+  </si>
+  <si>
+    <t>裸金属资源池测试</t>
+  </si>
+  <si>
+    <t>172.23.1.2</t>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
+    <t>select id,name from bizops_tenant.resourcepool where name='裸金属资源池'</t>
+  </si>
+  <si>
+    <t>添加重名资源池</t>
+  </si>
+  <si>
+    <t>正常编辑vmware资源池</t>
+  </si>
+  <si>
+    <t>vmware资源池描述update测试</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>select name,description from bizops_tenant.resourcepool where name='vmware资源池'</t>
+  </si>
+  <si>
+    <t>正常编辑裸金属资源池</t>
+  </si>
+  <si>
+    <t>裸金属资源池描述update测试</t>
+  </si>
+  <si>
+    <t>resourcepooltype</t>
+  </si>
+  <si>
+    <t>resourcepool</t>
+  </si>
+  <si>
+    <t>tenant</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>vmname</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>ostype</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>cpu</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>osdisk</t>
+  </si>
+  <si>
+    <t>disktype</t>
+  </si>
+  <si>
+    <t>net</t>
+  </si>
+  <si>
+    <t>subnet</t>
+  </si>
+  <si>
+    <t>nettype</t>
+  </si>
+  <si>
+    <t>ipaddress</t>
+  </si>
+  <si>
+    <t>VC租户</t>
+  </si>
+  <si>
+    <t>VC项目</t>
+  </si>
+  <si>
+    <t>vc-vm</t>
+  </si>
+  <si>
+    <t>VC-镜像</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>cluster-01</t>
+  </si>
+  <si>
+    <t>172.21.1.23</t>
+  </si>
+  <si>
+    <t>Thick Provison Eager Zeroed</t>
+  </si>
+  <si>
+    <t>VC-网络</t>
+  </si>
+  <si>
+    <t>VMXNET 3</t>
+  </si>
+  <si>
+    <t>172.21.3.90</t>
+  </si>
+  <si>
+    <t>select id,name from cmp_compute.instance where name='vc-vm'</t>
+  </si>
+  <si>
+    <t>enablePublic</t>
+  </si>
+  <si>
+    <t>onlyManage</t>
+  </si>
+  <si>
+    <t>cpuArch</t>
+  </si>
+  <si>
+    <t>cpuSize</t>
+  </si>
+  <si>
+    <t>memorySize</t>
+  </si>
+  <si>
+    <t>diskSize</t>
+  </si>
+  <si>
+    <t>ipmiIp</t>
+  </si>
+  <si>
+    <t>ipmiUser</t>
+  </si>
+  <si>
+    <t>ipmiPassword</t>
+  </si>
+  <si>
+    <t>pxeMac</t>
+  </si>
+  <si>
+    <t>manufacturer</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>upPort</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>x86</t>
+  </si>
+  <si>
+    <t>172.16.19.115</t>
+  </si>
+  <si>
+    <t>calvin</t>
+  </si>
+  <si>
+    <t>C8:1F:66:E5:50:D2</t>
+  </si>
+  <si>
+    <t>DELL</t>
+  </si>
+  <si>
+    <t>R620</t>
+  </si>
+  <si>
+    <t>osType</t>
+  </si>
+  <si>
+    <t>osVersion</t>
+  </si>
+  <si>
+    <t>imagePath</t>
+  </si>
+  <si>
+    <t>imageDesc</t>
+  </si>
+  <si>
     <t>vmware资源池16</t>
-  </si>
-  <si>
-    <t>vmware</t>
-  </si>
-  <si>
-    <t>vmware资源池16测试</t>
-  </si>
-  <si>
-    <t>172.21.1.16</t>
-  </si>
-  <si>
-    <t>administrator@vsphere.local</t>
-  </si>
-  <si>
-    <t>Root@1234</t>
-  </si>
-  <si>
-    <t>DC1</t>
-  </si>
-  <si>
-    <t>正常添加openstack资源池</t>
-  </si>
-  <si>
-    <t>openstack资源池65</t>
-  </si>
-  <si>
-    <t>openstack</t>
-  </si>
-  <si>
-    <t>openstack资源池65测试</t>
-  </si>
-  <si>
-    <t>172.50.10.65</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>1qaz!QAZ</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>1adb0d06f9bb4caa97b91baf22d52976</t>
-  </si>
-  <si>
-    <t>http</t>
-  </si>
-  <si>
-    <t>RegionOne</t>
-  </si>
-  <si>
-    <t>v3</t>
-  </si>
-  <si>
-    <t>添加openstack资源池开发</t>
-  </si>
-  <si>
-    <t>openstack资源池30</t>
-  </si>
-  <si>
-    <t>openstack资源池30开发</t>
-  </si>
-  <si>
-    <t>172.21.1.30</t>
-  </si>
-  <si>
-    <t>9586149bbadf450aaa46440d7e68ba08</t>
-  </si>
-  <si>
-    <t>正常添加裸金属资源池</t>
-  </si>
-  <si>
-    <t>裸金属资源池</t>
-  </si>
-  <si>
-    <t>baremetal</t>
-  </si>
-  <si>
-    <t>裸金属资源池测试</t>
-  </si>
-  <si>
-    <t>172.23.1.2</t>
-  </si>
-  <si>
-    <t>正常编辑vmware资源池</t>
-  </si>
-  <si>
-    <t>vmware资源池更新</t>
-  </si>
-  <si>
-    <t>正常编辑openstack资源池</t>
-  </si>
-  <si>
-    <t>openstack资源池更新</t>
-  </si>
-  <si>
-    <t>正常编辑裸金属资源池</t>
-  </si>
-  <si>
-    <t>baremetal资源池更新</t>
-  </si>
-  <si>
-    <t>resourcepooltype</t>
-  </si>
-  <si>
-    <t>resourcepool</t>
-  </si>
-  <si>
-    <t>tenant</t>
-  </si>
-  <si>
-    <t>project</t>
-  </si>
-  <si>
-    <t>vmname</t>
-  </si>
-  <si>
-    <t>account</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>ostype</t>
-  </si>
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
-    <t>host</t>
-  </si>
-  <si>
-    <t>cpu</t>
-  </si>
-  <si>
-    <t>memory</t>
-  </si>
-  <si>
-    <t>osdisk</t>
-  </si>
-  <si>
-    <t>disktype</t>
-  </si>
-  <si>
-    <t>net</t>
-  </si>
-  <si>
-    <t>subnet</t>
-  </si>
-  <si>
-    <t>nettype</t>
-  </si>
-  <si>
-    <t>ipaddress</t>
-  </si>
-  <si>
-    <t>VC租户</t>
-  </si>
-  <si>
-    <t>VC项目</t>
-  </si>
-  <si>
-    <t>vc-vm</t>
-  </si>
-  <si>
-    <t>VC-镜像</t>
-  </si>
-  <si>
-    <t>Linux</t>
-  </si>
-  <si>
-    <t>集群-01</t>
-  </si>
-  <si>
-    <t>172.21.1.17</t>
-  </si>
-  <si>
-    <t>Thick Provison Eager Zeroed</t>
-  </si>
-  <si>
-    <t>VC-网络</t>
-  </si>
-  <si>
-    <t>VMXNET 3</t>
-  </si>
-  <si>
-    <t>172.21.3.90</t>
-  </si>
-  <si>
-    <t>OP租户</t>
-  </si>
-  <si>
-    <t>OP项目</t>
-  </si>
-  <si>
-    <t>op-vm</t>
-  </si>
-  <si>
-    <t>OP-镜像</t>
-  </si>
-  <si>
-    <t>OP-网络</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>172.21.6.95</t>
-  </si>
-  <si>
-    <t>op-vm2</t>
-  </si>
-  <si>
-    <t>OP30-镜像</t>
-  </si>
-  <si>
-    <t>OP30-网络</t>
-  </si>
-  <si>
-    <t>172.21.8.95</t>
-  </si>
-  <si>
-    <t>enablePublic</t>
-  </si>
-  <si>
-    <t>onlyManage</t>
-  </si>
-  <si>
-    <t>cpuArch</t>
-  </si>
-  <si>
-    <t>cpuSize</t>
-  </si>
-  <si>
-    <t>memorySize</t>
-  </si>
-  <si>
-    <t>diskSize</t>
-  </si>
-  <si>
-    <t>ipmiIp</t>
-  </si>
-  <si>
-    <t>ipmiUser</t>
-  </si>
-  <si>
-    <t>ipmiPassword</t>
-  </si>
-  <si>
-    <t>pxeMac</t>
-  </si>
-  <si>
-    <t>manufacturer</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>upPort</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>x86</t>
-  </si>
-  <si>
-    <t>172.16.19.115</t>
-  </si>
-  <si>
-    <t>calvin</t>
-  </si>
-  <si>
-    <t>C8:1F:66:E5:50:D2</t>
-  </si>
-  <si>
-    <t>DELL</t>
-  </si>
-  <si>
-    <t>R620</t>
-  </si>
-  <si>
-    <t>osType</t>
-  </si>
-  <si>
-    <t>osVersion</t>
-  </si>
-  <si>
-    <t>imagePath</t>
-  </si>
-  <si>
-    <t>imageDesc</t>
   </si>
   <si>
     <t>clone-vc-vm</t>
@@ -527,10 +476,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -573,7 +522,59 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,61 +596,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -680,16 +628,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -702,7 +651,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,49 +813,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,121 +831,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,56 +888,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1013,9 +912,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1034,6 +959,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1042,149 +991,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1206,10 +1155,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1545,48 +1500,46 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="27.125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="10" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="71.5" style="10" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="3.375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="5.375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="8.375" style="10" customWidth="1"/>
-    <col min="10" max="10" width="10.375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="27.125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="3.375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="5.375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="10.375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2"/>
-    </row>
-    <row r="3" spans="1:5">
+    <row r="2" spans="1:4">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1599,7 +1552,6 @@
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
@@ -1630,26 +1582,16 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="8">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="8"/>
+      <c r="D6" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1668,7 +1610,7 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1680,10 +1622,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1692,18 +1634,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1734,25 +1676,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1766,13 +1708,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D3" s="2" t="b">
         <v>0</v>
@@ -1781,19 +1723,19 @@
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D4" s="2" t="b">
         <v>0</v>
@@ -1802,19 +1744,19 @@
         <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D5" s="2" t="b">
         <v>0</v>
@@ -1823,7 +1765,7 @@
         <v>40</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -1862,25 +1804,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1894,48 +1836,48 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1970,13 +1912,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1986,24 +1928,24 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2036,16 +1978,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2062,10 +2004,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2076,10 +2018,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2122,46 +2064,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2182,10 +2124,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -2194,19 +2136,19 @@
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
@@ -2215,13 +2157,13 @@
         <v>2</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2263,13 +2205,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2279,13 +2221,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2318,16 +2260,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2338,16 +2280,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2383,22 +2325,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2411,62 +2353,62 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>123</v>
+        <v>140</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>123</v>
+        <v>142</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>160</v>
+        <v>145</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2486,45 +2428,50 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="27.125" customWidth="1"/>
-    <col min="3" max="3" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="25.875" customWidth="1"/>
     <col min="4" max="4" width="26.875" customWidth="1"/>
     <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2540,8 +2487,11 @@
       <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2555,14 +2505,36 @@
         <v>5</v>
       </c>
       <c r="E4" s="2"/>
+      <c r="F4" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
+        <v>409</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2572,51 +2544,74 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="27.5" customWidth="1"/>
     <col min="3" max="3" width="26.25" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D1" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2626,427 +2621,111 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
-  <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="23.75" style="10" customWidth="1"/>
-    <col min="4" max="4" width="18.875" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
-    <col min="6" max="6" width="21.75" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="10" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="11.25" style="10" customWidth="1"/>
-    <col min="11" max="11" width="28.625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="12.125" style="10" customWidth="1"/>
-    <col min="13" max="13" width="14.25" customWidth="1"/>
-    <col min="15" max="15" width="36" customWidth="1"/>
-    <col min="17" max="17" width="10.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="2">
-        <v>443</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="8">
-        <v>443</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="2">
-        <v>5000</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="2">
-        <v>5000</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="2">
-        <v>5000</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" s="2">
-        <v>5000</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="2">
-        <v>7003</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" display="administrator@vsphere.local"/>
-    <hyperlink ref="L3" r:id="rId2" display="Root@1234"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:S5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="23.625" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="23.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
     <col min="5" max="5" width="10.375" customWidth="1"/>
-    <col min="6" max="6" width="23.125" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="8.125" customWidth="1"/>
-    <col min="18" max="18" width="8" customWidth="1"/>
-    <col min="19" max="19" width="19.25" customWidth="1"/>
+    <col min="6" max="6" width="21.75" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="12" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="11.25" style="12" customWidth="1"/>
+    <col min="11" max="11" width="28.625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="12.125" style="12" customWidth="1"/>
+    <col min="13" max="13" width="14.25" customWidth="1"/>
+    <col min="15" max="15" width="12.75" customWidth="1"/>
+    <col min="17" max="17" width="10.375" customWidth="1"/>
+    <col min="19" max="19" width="14.125" customWidth="1"/>
+    <col min="20" max="20" width="19.25" customWidth="1"/>
+    <col min="21" max="21" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:21">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="J1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="M1" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
@@ -3054,160 +2733,168 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+    </row>
+    <row r="3" ht="108" spans="1:21">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="H3" s="2">
         <v>443</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="8">
+        <v>43</v>
+      </c>
+      <c r="J3" s="9">
         <v>443</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>40</v>
+      <c r="K3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="S3" s="2">
+        <v>200</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" ht="108" spans="1:21">
       <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="2">
+        <v>7003</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2">
+        <v>200</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="C5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="2">
+        <v>443</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="9">
+        <v>443</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="2">
-        <v>5000</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" s="2">
-        <v>5000</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="2">
-        <v>7003</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" s="2"/>
+      <c r="L5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="S5" s="2">
+        <v>500</v>
+      </c>
+      <c r="T5" s="2"/>
+      <c r="U5" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="21">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -3227,6 +2914,266 @@
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K3" r:id="rId1" display="administrator@vsphere.local"/>
+    <hyperlink ref="L3" r:id="rId2" display="Root@1234"/>
+    <hyperlink ref="K5" r:id="rId1" display="administrator@vsphere.local"/>
+    <hyperlink ref="L5" r:id="rId2" display="Root@1234"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U4"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="23.625" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="11.75" customWidth="1"/>
+    <col min="8" max="8" width="8.125" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="10.875" customWidth="1"/>
+    <col min="11" max="11" width="28.875" customWidth="1"/>
+    <col min="12" max="12" width="10.375" customWidth="1"/>
+    <col min="18" max="18" width="9.625" customWidth="1"/>
+    <col min="19" max="19" width="13.375" customWidth="1"/>
+    <col min="20" max="20" width="22.25" customWidth="1"/>
+    <col min="21" max="21" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+    </row>
+    <row r="3" ht="108" spans="1:21">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="2">
+        <v>443</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="9">
+        <v>443</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2">
+        <v>200</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" ht="108" spans="1:21">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="2">
+        <v>7003</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2">
+        <v>200</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1" display="administrator@vsphere.local"/>
@@ -3240,13 +3187,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="19.125" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
@@ -3254,6 +3201,7 @@
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="5" width="9.375" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
     <col min="11" max="11" width="12.625" customWidth="1"/>
     <col min="12" max="12" width="5.375" customWidth="1"/>
     <col min="13" max="13" width="7.375" customWidth="1"/>
@@ -3263,68 +3211,80 @@
     <col min="17" max="17" width="7" customWidth="1"/>
     <col min="18" max="18" width="9.125" customWidth="1"/>
     <col min="19" max="19" width="22.375" customWidth="1"/>
+    <col min="20" max="20" width="14.125" customWidth="1"/>
+    <col min="21" max="21" width="19.125" customWidth="1"/>
+    <col min="22" max="22" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="1"/>
@@ -3344,40 +3304,43 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+    </row>
+    <row r="3" ht="108" spans="1:22">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="L3" s="2">
         <v>1</v>
@@ -3389,129 +3352,32 @@
         <v>40</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-      <c r="M4" s="2">
-        <v>2</v>
-      </c>
-      <c r="N4" s="2">
-        <v>40</v>
-      </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2">
-        <v>1</v>
-      </c>
-      <c r="M5" s="2">
-        <v>2</v>
-      </c>
-      <c r="N5" s="2">
-        <v>40</v>
-      </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>109</v>
+        <v>90</v>
+      </c>
+      <c r="T3" s="2">
+        <v>200</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="22">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -3531,6 +3397,9 @@
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3562,55 +3431,55 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3633,23 +3502,23 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="13" t="s">
-        <v>123</v>
+      <c r="A3" s="15" t="s">
+        <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>123</v>
+        <v>81</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="E3" s="2">
         <v>115</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="G3" s="2">
         <v>4</v>
@@ -3661,28 +3530,28 @@
         <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="P3" s="2">
         <v>1212</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3748,16 +3617,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5">

--- a/test_data/物理资源.xlsx
+++ b/test_data/物理资源.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8010" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12690" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="添加数据中心" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="148">
   <si>
     <t>ID</t>
   </si>
@@ -147,7 +147,7 @@
     <t>expected_result</t>
   </si>
   <si>
-    <t>db_verify</t>
+    <t>expected_db</t>
   </si>
   <si>
     <t>正常添加vmware资源池</t>
@@ -174,7 +174,7 @@
     <t>DC</t>
   </si>
   <si>
-    <t>select id,name from bizops_tenant.resourcepool where name='vmware资源池'</t>
+    <t>{'name':'vmware资源池','ip':'172.21.1.21'}</t>
   </si>
   <si>
     <t>正常添加裸金属资源池</t>
@@ -195,13 +195,16 @@
     <t>http</t>
   </si>
   <si>
-    <t>select id,name from bizops_tenant.resourcepool where name='裸金属资源池'</t>
+    <t>{'name':'裸金属资源池','ip':'172.23.1.2'}</t>
   </si>
   <si>
     <t>添加重名资源池</t>
   </si>
   <si>
-    <t>正常编辑vmware资源池</t>
+    <t>resource pool name conflicted</t>
+  </si>
+  <si>
+    <t>编辑修改vmware资源池描述</t>
   </si>
   <si>
     <t>vmware资源池描述update测试</t>
@@ -210,15 +213,18 @@
     <t>update</t>
   </si>
   <si>
-    <t>select name,description from bizops_tenant.resourcepool where name='vmware资源池'</t>
-  </si>
-  <si>
-    <t>正常编辑裸金属资源池</t>
+    <t>{'name':'vmware资源池','descripton':'vmware资源池描述update测试'}</t>
+  </si>
+  <si>
+    <t>编辑修改裸金属资源池描述</t>
   </si>
   <si>
     <t>裸金属资源池描述update测试</t>
   </si>
   <si>
+    <t>{'name':'vmware资源池','descripton':'裸金属资源池描述update测试'}</t>
+  </si>
+  <si>
     <t>resourcepooltype</t>
   </si>
   <si>
@@ -306,7 +312,7 @@
     <t>172.21.3.90</t>
   </si>
   <si>
-    <t>select id,name from cmp_compute.instance where name='vc-vm'</t>
+    <t>{'name':'vc-vm','status':'noraml'}</t>
   </si>
   <si>
     <t>enablePublic</t>
@@ -476,9 +482,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -507,7 +513,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,6 +544,36 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,7 +596,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,60 +610,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,17 +634,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -651,13 +657,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,37 +759,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,91 +789,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,7 +807,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,13 +831,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,65 +892,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -956,6 +903,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -983,6 +939,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -991,10 +997,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="8">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -1003,16 +1009,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -1024,112 +1030,112 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1622,10 +1628,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1634,18 +1640,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1676,25 +1682,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1708,13 +1714,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D3" s="2" t="b">
         <v>0</v>
@@ -1723,19 +1729,19 @@
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D4" s="2" t="b">
         <v>0</v>
@@ -1744,19 +1750,19 @@
         <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D5" s="2" t="b">
         <v>0</v>
@@ -1765,7 +1771,7 @@
         <v>40</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -1804,22 +1810,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>24</v>
@@ -1836,48 +1842,48 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1912,13 +1918,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1928,24 +1934,24 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1978,16 +1984,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2004,10 +2010,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2018,10 +2024,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2064,46 +2070,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2124,10 +2130,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -2136,19 +2142,19 @@
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
@@ -2157,13 +2163,13 @@
         <v>2</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2205,13 +2211,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2221,13 +2227,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2260,16 +2266,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2280,16 +2286,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2325,22 +2331,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2353,62 +2359,62 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>145</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2623,8 +2629,8 @@
   <sheetPr/>
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:U5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -2644,8 +2650,8 @@
     <col min="15" max="15" width="12.75" customWidth="1"/>
     <col min="17" max="17" width="10.375" customWidth="1"/>
     <col min="19" max="19" width="14.125" customWidth="1"/>
-    <col min="20" max="20" width="19.25" customWidth="1"/>
-    <col min="21" max="21" width="12.125" customWidth="1"/>
+    <col min="20" max="20" width="19.125" customWidth="1"/>
+    <col min="21" max="21" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -2736,7 +2742,7 @@
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
     </row>
-    <row r="3" ht="108" spans="1:21">
+    <row r="3" ht="54" spans="1:21">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2791,7 +2797,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" ht="108" spans="1:21">
+    <row r="4" ht="54" spans="1:21">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2842,7 +2848,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" ht="27" spans="1:21">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2890,7 +2896,9 @@
       <c r="S5" s="2">
         <v>500</v>
       </c>
-      <c r="T5" s="2"/>
+      <c r="T5" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="U5" s="7"/>
     </row>
   </sheetData>
@@ -2933,8 +2941,8 @@
   <sheetPr/>
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -2951,10 +2959,12 @@
     <col min="10" max="10" width="10.875" customWidth="1"/>
     <col min="11" max="11" width="28.875" customWidth="1"/>
     <col min="12" max="12" width="10.375" customWidth="1"/>
+    <col min="13" max="13" width="12.875" customWidth="1"/>
+    <col min="15" max="15" width="11.625" customWidth="1"/>
     <col min="18" max="18" width="9.625" customWidth="1"/>
     <col min="19" max="19" width="13.375" customWidth="1"/>
-    <col min="20" max="20" width="22.25" customWidth="1"/>
-    <col min="21" max="21" width="11.625" customWidth="1"/>
+    <col min="20" max="20" width="19.125" customWidth="1"/>
+    <col min="21" max="21" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -3045,12 +3055,12 @@
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
     </row>
-    <row r="3" ht="108" spans="1:21">
+    <row r="3" ht="94.5" spans="1:21">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>5</v>
@@ -3062,7 +3072,7 @@
         <v>41</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>43</v>
@@ -3094,18 +3104,18 @@
         <v>200</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" ht="108" spans="1:21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" ht="81" spans="1:21">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>60</v>
+      <c r="B4" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -3117,7 +3127,7 @@
         <v>50</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>52</v>
@@ -3145,10 +3155,10 @@
         <v>200</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3189,18 +3199,20 @@
   <sheetPr/>
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="19.125" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="9.375" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="9.25" customWidth="1"/>
+    <col min="6" max="6" width="8.125" customWidth="1"/>
+    <col min="7" max="7" width="9.25" customWidth="1"/>
+    <col min="8" max="8" width="8.125" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
     <col min="11" max="11" width="12.625" customWidth="1"/>
     <col min="12" max="12" width="5.375" customWidth="1"/>
@@ -3212,67 +3224,67 @@
     <col min="18" max="18" width="9.125" customWidth="1"/>
     <col min="19" max="19" width="22.375" customWidth="1"/>
     <col min="20" max="20" width="14.125" customWidth="1"/>
-    <col min="21" max="21" width="19.125" customWidth="1"/>
-    <col min="22" max="22" width="11.625" customWidth="1"/>
+    <col min="21" max="21" width="19" customWidth="1"/>
+    <col min="22" max="22" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>16</v>
@@ -3308,7 +3320,7 @@
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
     </row>
-    <row r="3" ht="108" spans="1:22">
+    <row r="3" ht="40.5" spans="1:22">
       <c r="A3" s="2" t="s">
         <v>41</v>
       </c>
@@ -3319,28 +3331,28 @@
         <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L3" s="2">
         <v>1</v>
@@ -3352,28 +3364,28 @@
         <v>40</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="T3" s="2">
         <v>200</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3431,55 +3443,55 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3503,22 +3515,22 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E3" s="2">
         <v>115</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G3" s="2">
         <v>4</v>
@@ -3530,22 +3542,22 @@
         <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P3" s="2">
         <v>1212</v>
@@ -3617,16 +3629,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:5">
